--- a/SpMVC_ReadBook/독서록프로젝트 테애블 명세.xlsx
+++ b/SpMVC_ReadBook/독서록프로젝트 테애블 명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -499,6 +499,18 @@
   </si>
   <si>
     <t>M_USERID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_EMAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,6 +875,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -888,27 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1912,23 +1924,23 @@
       <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="13">
         <v>44095</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -1937,36 +1949,36 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2379,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3036,23 +3048,23 @@
       <c r="C1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="13">
         <v>44099</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -3061,36 +3073,36 @@
       <c r="C2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -3131,246 +3143,254 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -3455,12 +3475,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3601,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4258,23 +4278,23 @@
       <c r="C1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="30" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="13">
         <v>44099</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -4283,36 +4303,36 @@
       <c r="C2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4353,76 +4373,76 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4430,106 +4450,106 @@
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
@@ -4623,12 +4643,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SpMVC_ReadBook/독서록프로젝트 테애블 명세.xlsx
+++ b/SpMVC_ReadBook/독서록프로젝트 테애블 명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\Biz_506-2020_07_SpringMVC\SpMVC_ReadBook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ReadBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
-    <sheet name="사용자테이블명세" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="사용자권한 테이블명세" sheetId="5" r:id="rId4"/>
+    <sheet name="사용자 테이블 명세" sheetId="4" r:id="rId2"/>
+    <sheet name="사용자 권한 테이블명세" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,14 +315,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>tbl_member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_member</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입을 수행한 사용자 정보를 저장할 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,6 +345,10 @@
     <t>M_ROLL</t>
   </si>
   <si>
+    <t>ENABLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>AccountNonExpired</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,47 +361,139 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정퇴출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정잠금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인가취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블린, 문자(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블린, 문자(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블린, 문자(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 권한정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_authority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정잠금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>인가취소</t>
+    <t>권한명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_USERID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ROLE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -405,104 +501,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(1)</t>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN, ROLE_USER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '0'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>문자열(30)</t>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(125)</t>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-  </si>
-  <si>
-    <t>문자열(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블린,문자(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블린,문자(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 권한 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_authority</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입을 수행한 사용자 권한정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_ROLL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLL_ADMIN, ROLL_USER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT '0'</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_USERID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,7 +552,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -550,13 +581,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -802,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,27 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1924,23 +1927,23 @@
       <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44095</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -1949,36 +1952,36 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="38" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -2391,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2400,10 +2403,9 @@
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -3046,63 +3048,63 @@
         <v>9</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44099</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -3143,253 +3145,253 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="F7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="F8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="F9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="F10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="D11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="G11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="D12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="E13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="D14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3491,138 +3493,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3631,13 +3505,13 @@
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
     <col min="13" max="258" width="8.88671875" style="1"/>
     <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
     <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -4278,23 +4152,23 @@
       <c r="C1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13">
         <v>44099</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="39"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="16" t="s">
@@ -4303,36 +4177,36 @@
       <c r="C2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="38" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="C3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
@@ -4373,183 +4247,183 @@
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="C6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29" t="s">
+      <c r="C7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>119</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10">
@@ -4655,4 +4529,132 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>